--- a/StructureDefinition-ext-R5-RatioRange.xlsx
+++ b/StructureDefinition-ext-R5-RatioRange.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-RatioRange.xlsx
+++ b/StructureDefinition-ext-R5-RatioRange.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-RatioRange.xlsx
+++ b/StructureDefinition-ext-R5-RatioRange.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,7 +404,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-RatioRange.xlsx
+++ b/StructureDefinition-ext-R5-RatioRange.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,7 +404,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
